--- a/biology/Médecine/Imagine_for_Margo/Imagine_for_Margo.xlsx
+++ b/biology/Médecine/Imagine_for_Margo/Imagine_for_Margo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Imagine For Margo - Children Without Cancer est une association loi de 1901, créée en 2011 en France, qui mène des actions de sensibilisation et de collecte de fonds afin d’aider la recherche européenne sur des traitements spécifiques, innovants et plus efficaces pour les enfants atteints de cancer.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En mars 2009, Margaux, atteinte d'une tumeur au cerveau, a initié une collecte de fonds qui a généré un immense élan de générosité et de solidarité. 103 000 euros ont été remis à l’équipe pédiatrique de l’Institut de cancérologie Gustave Roussy à Villejuif pour permettre de finaliser une étude sur les gliomes du haut grade.
-En novembre 2011, l'association Imagine For Margo a été créé à la suite de son décès à l'âge de 14 ans afin de poursuivre son initiative [1]
+En novembre 2011, l'association Imagine For Margo a été créé à la suite de son décès à l'âge de 14 ans afin de poursuivre son initiative 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Promotion et soutien des projets de recherche et de développement de nouveaux médicaments et traitements pour les enfants et adolescents atteints de cancers.
 Participation et l'organisation d'évènements permettant la collecte de fonds auprès des particuliers et entreprises,
@@ -576,11 +592,48 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association est gérée par un Comité d'Administration composé de 9 membres[2] dont les parents de Margaux[3]. Ce dernier anime une équipe de salariés, personnes en mécénat de compétences et de bénévoles. Imagine for Margo travaille avec de nombreux partenaires scientifiques[4] et tisse des liens privilégiés avec des centres de recherche contre les cancers pédiatriques.
-Soutiens par des personnalités médiatiques
-L'association bénéficie régulièrement du soutien de la part de personnalités médiatiques telles que le chanteur Mika [5],  Vianney[6],  Sarah Ourahmoune[7], Louane[8] et précédemment par Christophe Dominici[9], Peter Lindbergh[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association est gérée par un Comité d'Administration composé de 9 membres dont les parents de Margaux. Ce dernier anime une équipe de salariés, personnes en mécénat de compétences et de bénévoles. Imagine for Margo travaille avec de nombreux partenaires scientifiques et tisse des liens privilégiés avec des centres de recherche contre les cancers pédiatriques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Imagine_for_Margo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imagine_for_Margo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Soutiens par des personnalités médiatiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association bénéficie régulièrement du soutien de la part de personnalités médiatiques telles que le chanteur Mika ,  Vianney,  Sarah Ourahmoune, Louane et précédemment par Christophe Dominici, Peter Lindbergh.
 </t>
         </is>
       </c>
